--- a/data/NOX.xlsx
+++ b/data/NOX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanzhu/University/STAA57/a57-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD313C9-DD8B-0C42-986E-553A34346093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A91074B-24AA-D346-BB28-85246530ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="165">
   <si>
     <t>Notes:</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>Elmira</t>
-  </si>
-  <si>
-    <t>Puc Bldg</t>
   </si>
   <si>
     <t>Cheapside Rd. (3 km S. of Hwy 3)</t>
@@ -924,8 +921,8 @@
   </sheetPr>
   <dimension ref="A1:P895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A754" workbookViewId="0">
-      <selection activeCell="K767" sqref="K767"/>
+    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
+      <selection activeCell="A789" sqref="A789:O789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37893,46 +37890,46 @@
         <v>1998</v>
       </c>
       <c r="B789" s="2">
-        <v>15013</v>
+        <v>15025</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="E789" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F789" s="2">
-        <v>8506</v>
+        <v>8706</v>
       </c>
       <c r="G789" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H789" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I789" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J789" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K789" s="2">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="L789" s="2">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="M789" s="7">
-        <v>9.5</v>
+        <v>25.8</v>
       </c>
       <c r="N789" s="2">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="O789" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="790" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -37940,46 +37937,46 @@
         <v>1998</v>
       </c>
       <c r="B790" s="2">
-        <v>15025</v>
+        <v>22086</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D790" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F790" s="2">
-        <v>8706</v>
+        <v>7960</v>
       </c>
       <c r="G790" s="2">
+        <v>4</v>
+      </c>
+      <c r="H790" s="2">
+        <v>6</v>
+      </c>
+      <c r="I790" s="2">
         <v>9</v>
       </c>
-      <c r="H790" s="2">
-        <v>14</v>
-      </c>
-      <c r="I790" s="2">
-        <v>19</v>
-      </c>
       <c r="J790" s="2">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K790" s="2">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="L790" s="2">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="M790" s="7">
-        <v>25.8</v>
+        <v>10.4</v>
       </c>
       <c r="N790" s="2">
-        <v>318</v>
+        <v>153</v>
       </c>
       <c r="O790" s="2">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="791" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -37987,46 +37984,46 @@
         <v>1998</v>
       </c>
       <c r="B791" s="2">
-        <v>22086</v>
+        <v>22901</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D791" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F791" s="2">
-        <v>7960</v>
+        <v>6096</v>
       </c>
       <c r="G791" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H791" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I791" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J791" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K791" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L791" s="2">
-        <v>39</v>
-      </c>
-      <c r="M791" s="7">
-        <v>10.4</v>
+        <v>37</v>
+      </c>
+      <c r="M791" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="N791" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="O791" s="2">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="792" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38034,46 +38031,46 @@
         <v>1998</v>
       </c>
       <c r="B792" s="2">
-        <v>22901</v>
+        <v>26060</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="D792" s="1" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="E792" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F792" s="2">
-        <v>6096</v>
+        <v>8195</v>
       </c>
       <c r="G792" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H792" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I792" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J792" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K792" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="L792" s="2">
-        <v>37</v>
-      </c>
-      <c r="M792" s="6" t="s">
-        <v>101</v>
+        <v>143</v>
+      </c>
+      <c r="M792" s="7">
+        <v>23.9</v>
       </c>
       <c r="N792" s="2">
-        <v>74</v>
+        <v>476</v>
       </c>
       <c r="O792" s="2">
-        <v>34</v>
+        <v>173</v>
       </c>
     </row>
     <row r="793" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38081,46 +38078,46 @@
         <v>1998</v>
       </c>
       <c r="B793" s="2">
-        <v>26060</v>
+        <v>27067</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D793" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E793" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F793" s="2">
-        <v>8195</v>
+        <v>7283</v>
       </c>
       <c r="G793" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H793" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I793" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J793" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K793" s="2">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="L793" s="2">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="M793" s="7">
-        <v>23.9</v>
+        <v>31.7</v>
       </c>
       <c r="N793" s="2">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="O793" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="794" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38128,46 +38125,46 @@
         <v>1998</v>
       </c>
       <c r="B794" s="2">
-        <v>27067</v>
+        <v>29000</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D794" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E794" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F794" s="2">
-        <v>7283</v>
+        <v>8603</v>
       </c>
       <c r="G794" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H794" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I794" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J794" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K794" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L794" s="2">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="M794" s="7">
-        <v>31.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="N794" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="O794" s="2">
-        <v>172</v>
+        <v>216</v>
       </c>
     </row>
     <row r="795" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38175,46 +38172,46 @@
         <v>1998</v>
       </c>
       <c r="B795" s="2">
-        <v>29000</v>
+        <v>29102</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="D795" s="1" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E795" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F795" s="2">
-        <v>8603</v>
+        <v>3558</v>
       </c>
       <c r="G795" s="2">
+        <v>6</v>
+      </c>
+      <c r="H795" s="2">
         <v>11</v>
       </c>
-      <c r="H795" s="2">
-        <v>18</v>
-      </c>
       <c r="I795" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J795" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K795" s="2">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="L795" s="2">
-        <v>182</v>
-      </c>
-      <c r="M795" s="7">
-        <v>34.700000000000003</v>
+        <v>152</v>
+      </c>
+      <c r="M795" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="N795" s="2">
-        <v>437</v>
+        <v>329</v>
       </c>
       <c r="O795" s="2">
-        <v>216</v>
+        <v>103</v>
       </c>
     </row>
     <row r="796" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38222,46 +38219,46 @@
         <v>1998</v>
       </c>
       <c r="B796" s="2">
-        <v>29102</v>
+        <v>29114</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="D796" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F796" s="2">
-        <v>3558</v>
+        <v>8160</v>
       </c>
       <c r="G796" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H796" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I796" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J796" s="2">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K796" s="2">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="L796" s="2">
-        <v>152</v>
-      </c>
-      <c r="M796" s="6" t="s">
-        <v>101</v>
+        <v>126</v>
+      </c>
+      <c r="M796" s="7">
+        <v>25.4</v>
       </c>
       <c r="N796" s="2">
-        <v>329</v>
+        <v>479</v>
       </c>
       <c r="O796" s="2">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="797" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38269,46 +38266,46 @@
         <v>1998</v>
       </c>
       <c r="B797" s="2">
-        <v>29114</v>
+        <v>29118</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D797" s="1" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E797" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F797" s="2">
-        <v>8160</v>
+        <v>6971</v>
       </c>
       <c r="G797" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H797" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I797" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J797" s="2">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K797" s="2">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="L797" s="2">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c r="M797" s="7">
-        <v>25.4</v>
+        <v>52.1</v>
       </c>
       <c r="N797" s="2">
-        <v>479</v>
+        <v>598</v>
       </c>
       <c r="O797" s="2">
-        <v>162</v>
+        <v>327</v>
       </c>
     </row>
     <row r="798" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38316,46 +38313,46 @@
         <v>1998</v>
       </c>
       <c r="B798" s="2">
-        <v>29118</v>
+        <v>31103</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D798" s="1" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="E798" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F798" s="2">
-        <v>6971</v>
+        <v>8501</v>
       </c>
       <c r="G798" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H798" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I798" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J798" s="2">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K798" s="2">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="L798" s="2">
-        <v>316</v>
+        <v>177</v>
       </c>
       <c r="M798" s="7">
-        <v>52.1</v>
+        <v>51.6</v>
       </c>
       <c r="N798" s="2">
-        <v>598</v>
+        <v>410</v>
       </c>
       <c r="O798" s="2">
-        <v>327</v>
+        <v>172</v>
       </c>
     </row>
     <row r="799" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38363,46 +38360,46 @@
         <v>1998</v>
       </c>
       <c r="B799" s="2">
-        <v>31103</v>
+        <v>33003</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D799" s="1" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E799" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F799" s="2">
-        <v>8501</v>
+        <v>8219</v>
       </c>
       <c r="G799" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H799" s="2">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I799" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J799" s="2">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K799" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L799" s="2">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="M799" s="7">
-        <v>51.6</v>
+        <v>48.3</v>
       </c>
       <c r="N799" s="2">
-        <v>410</v>
+        <v>530</v>
       </c>
       <c r="O799" s="2">
-        <v>172</v>
+        <v>235</v>
       </c>
     </row>
     <row r="800" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38410,46 +38407,46 @@
         <v>1998</v>
       </c>
       <c r="B800" s="2">
-        <v>33003</v>
+        <v>34020</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D800" s="1" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E800" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F800" s="2">
-        <v>8219</v>
+        <v>8528</v>
       </c>
       <c r="G800" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H800" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I800" s="2">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J800" s="2">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K800" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L800" s="2">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="M800" s="7">
-        <v>48.3</v>
+        <v>39.9</v>
       </c>
       <c r="N800" s="2">
-        <v>530</v>
+        <v>345</v>
       </c>
       <c r="O800" s="2">
-        <v>235</v>
+        <v>160</v>
       </c>
     </row>
     <row r="801" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38457,46 +38454,46 @@
         <v>1998</v>
       </c>
       <c r="B801" s="2">
-        <v>34020</v>
+        <v>35003</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="D801" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E801" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F801" s="2">
-        <v>8528</v>
+        <v>7820</v>
       </c>
       <c r="G801" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H801" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I801" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J801" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K801" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L801" s="2">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="M801" s="7">
-        <v>39.9</v>
+        <v>43.7</v>
       </c>
       <c r="N801" s="2">
-        <v>345</v>
+        <v>553</v>
       </c>
       <c r="O801" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
     </row>
     <row r="802" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38504,46 +38501,46 @@
         <v>1998</v>
       </c>
       <c r="B802" s="2">
-        <v>35003</v>
+        <v>36030</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D802" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E802" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F802" s="2">
-        <v>7820</v>
+        <v>8668</v>
       </c>
       <c r="G802" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H802" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I802" s="2">
         <v>30</v>
       </c>
       <c r="J802" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K802" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L802" s="2">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="M802" s="7">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="N802" s="2">
-        <v>553</v>
+        <v>643</v>
       </c>
       <c r="O802" s="2">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="803" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38551,46 +38548,46 @@
         <v>1998</v>
       </c>
       <c r="B803" s="2">
-        <v>36030</v>
+        <v>44008</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="D803" s="1" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F803" s="2">
-        <v>8668</v>
+        <v>8030</v>
       </c>
       <c r="G803" s="2">
+        <v>6</v>
+      </c>
+      <c r="H803" s="2">
         <v>13</v>
       </c>
-      <c r="H803" s="2">
-        <v>21</v>
-      </c>
       <c r="I803" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J803" s="2">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K803" s="2">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="L803" s="2">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="M803" s="7">
-        <v>44</v>
+        <v>30.7</v>
       </c>
       <c r="N803" s="2">
-        <v>643</v>
+        <v>366</v>
       </c>
       <c r="O803" s="2">
-        <v>208</v>
+        <v>143</v>
       </c>
     </row>
     <row r="804" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38598,46 +38595,46 @@
         <v>1998</v>
       </c>
       <c r="B804" s="2">
-        <v>44008</v>
+        <v>44015</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D804" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="E804" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F804" s="2">
-        <v>8030</v>
+        <v>7540</v>
       </c>
       <c r="G804" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H804" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I804" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J804" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K804" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L804" s="2">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="M804" s="7">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="N804" s="2">
-        <v>366</v>
+        <v>468</v>
       </c>
       <c r="O804" s="2">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="805" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38645,46 +38642,46 @@
         <v>1998</v>
       </c>
       <c r="B805" s="2">
-        <v>44015</v>
+        <v>45025</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D805" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E805" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F805" s="2">
-        <v>7540</v>
+        <v>8621</v>
       </c>
       <c r="G805" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H805" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I805" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J805" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K805" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="L805" s="2">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="M805" s="7">
-        <v>30</v>
+        <v>35.1</v>
       </c>
       <c r="N805" s="2">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="O805" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="806" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38692,46 +38689,46 @@
         <v>1998</v>
       </c>
       <c r="B806" s="2">
-        <v>45025</v>
+        <v>46110</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E806" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F806" s="2">
-        <v>8621</v>
+        <v>4628</v>
       </c>
       <c r="G806" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H806" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I806" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J806" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K806" s="2">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="L806" s="2">
-        <v>183</v>
-      </c>
-      <c r="M806" s="7">
-        <v>35.1</v>
+        <v>232</v>
+      </c>
+      <c r="M806" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="N806" s="2">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="O806" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="807" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38739,46 +38736,46 @@
         <v>1998</v>
       </c>
       <c r="B807" s="2">
-        <v>46110</v>
+        <v>48002</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="D807" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E807" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F807" s="2">
-        <v>4628</v>
+        <v>8247</v>
       </c>
       <c r="G807" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H807" s="2">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I807" s="2">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J807" s="2">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="K807" s="2">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="L807" s="2">
-        <v>232</v>
-      </c>
-      <c r="M807" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
+      </c>
+      <c r="M807" s="7">
+        <v>15.5</v>
       </c>
       <c r="N807" s="2">
-        <v>505</v>
+        <v>229</v>
       </c>
       <c r="O807" s="2">
-        <v>135</v>
+        <v>65</v>
       </c>
     </row>
     <row r="808" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38786,46 +38783,46 @@
         <v>1998</v>
       </c>
       <c r="B808" s="2">
-        <v>48002</v>
+        <v>49010</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D808" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E808" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F808" s="2">
-        <v>8247</v>
+        <v>1981</v>
       </c>
       <c r="G808" s="2">
+        <v>1</v>
+      </c>
+      <c r="H808" s="2">
+        <v>2</v>
+      </c>
+      <c r="I808" s="2">
+        <v>3</v>
+      </c>
+      <c r="J808" s="2">
         <v>4</v>
       </c>
-      <c r="H808" s="2">
-        <v>7</v>
-      </c>
-      <c r="I808" s="2">
-        <v>11</v>
-      </c>
-      <c r="J808" s="2">
-        <v>17</v>
-      </c>
       <c r="K808" s="2">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="L808" s="2">
-        <v>76</v>
-      </c>
-      <c r="M808" s="7">
-        <v>15.5</v>
+        <v>19</v>
+      </c>
+      <c r="M808" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="N808" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="O808" s="2">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="809" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38833,46 +38830,46 @@
         <v>1998</v>
       </c>
       <c r="B809" s="2">
-        <v>49010</v>
+        <v>51001</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D809" s="1" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="E809" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F809" s="2">
-        <v>1981</v>
+        <v>8325</v>
       </c>
       <c r="G809" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H809" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I809" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J809" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K809" s="2">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="L809" s="2">
-        <v>19</v>
-      </c>
-      <c r="M809" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="M809" s="7">
+        <v>22.8</v>
       </c>
       <c r="N809" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="O809" s="2">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="810" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38880,46 +38877,46 @@
         <v>1998</v>
       </c>
       <c r="B810" s="2">
-        <v>51001</v>
+        <v>63200</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D810" s="1" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E810" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F810" s="2">
-        <v>8325</v>
+        <v>7705</v>
       </c>
       <c r="G810" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H810" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I810" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J810" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K810" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L810" s="2">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="M810" s="7">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="N810" s="2">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="O810" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="811" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38927,46 +38924,46 @@
         <v>1998</v>
       </c>
       <c r="B811" s="2">
-        <v>63200</v>
+        <v>71068</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D811" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E811" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F811" s="2">
-        <v>7705</v>
+        <v>7846</v>
       </c>
       <c r="G811" s="2">
+        <v>1</v>
+      </c>
+      <c r="H811" s="2">
         <v>5</v>
       </c>
-      <c r="H811" s="2">
-        <v>9</v>
-      </c>
       <c r="I811" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J811" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K811" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="L811" s="2">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="M811" s="7">
-        <v>22.6</v>
+        <v>16.7</v>
       </c>
       <c r="N811" s="2">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="O811" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="812" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -38974,93 +38971,93 @@
         <v>1998</v>
       </c>
       <c r="B812" s="2">
-        <v>71068</v>
+        <v>77203</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E812" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F812" s="2">
-        <v>7846</v>
+        <v>5501</v>
       </c>
       <c r="G812" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H812" s="2">
         <v>5</v>
       </c>
       <c r="I812" s="2">
+        <v>7</v>
+      </c>
+      <c r="J812" s="2">
         <v>10</v>
       </c>
-      <c r="J812" s="2">
-        <v>19</v>
-      </c>
       <c r="K812" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L812" s="2">
-        <v>103</v>
-      </c>
-      <c r="M812" s="7">
-        <v>16.7</v>
+        <v>42</v>
+      </c>
+      <c r="M812" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="N812" s="2">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="O812" s="2">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="813" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="2">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B813" s="2">
-        <v>77203</v>
+        <v>12008</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="E813" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F813" s="2">
-        <v>5501</v>
+        <v>8501</v>
       </c>
       <c r="G813" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H813" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I813" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="J813" s="2">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="K813" s="2">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="L813" s="2">
-        <v>42</v>
-      </c>
-      <c r="M813" s="6" t="s">
-        <v>101</v>
+        <v>160</v>
+      </c>
+      <c r="M813" s="7">
+        <v>39.299999999999997</v>
       </c>
       <c r="N813" s="2">
-        <v>125</v>
+        <v>354</v>
       </c>
       <c r="O813" s="2">
-        <v>33</v>
+        <v>160</v>
       </c>
     </row>
     <row r="814" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39068,46 +39065,46 @@
         <v>1997</v>
       </c>
       <c r="B814" s="2">
-        <v>12008</v>
+        <v>14064</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D814" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="E814" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F814" s="2">
-        <v>8501</v>
+        <v>8405</v>
       </c>
       <c r="G814" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H814" s="2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I814" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J814" s="2">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K814" s="2">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="L814" s="2">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="M814" s="7">
-        <v>39.299999999999997</v>
+        <v>24.9</v>
       </c>
       <c r="N814" s="2">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="O814" s="2">
-        <v>160</v>
+        <v>105</v>
       </c>
     </row>
     <row r="815" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39115,46 +39112,46 @@
         <v>1997</v>
       </c>
       <c r="B815" s="2">
-        <v>14064</v>
+        <v>15013</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E815" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F815" s="2">
-        <v>8405</v>
+        <v>8445</v>
       </c>
       <c r="G815" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H815" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I815" s="2">
+        <v>7</v>
+      </c>
+      <c r="J815" s="2">
+        <v>10</v>
+      </c>
+      <c r="K815" s="2">
         <v>19</v>
       </c>
-      <c r="J815" s="2">
-        <v>28</v>
-      </c>
-      <c r="K815" s="2">
-        <v>49</v>
-      </c>
       <c r="L815" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="M815" s="7">
-        <v>24.9</v>
+        <v>9.6</v>
       </c>
       <c r="N815" s="2">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="O815" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="816" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39162,46 +39159,46 @@
         <v>1997</v>
       </c>
       <c r="B816" s="2">
-        <v>15013</v>
+        <v>15025</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="D816" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="E816" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F816" s="2">
-        <v>8445</v>
+        <v>7946</v>
       </c>
       <c r="G816" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H816" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I816" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J816" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K816" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L816" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M816" s="7">
-        <v>9.6</v>
+        <v>24.4</v>
       </c>
       <c r="N816" s="2">
-        <v>124</v>
+        <v>322</v>
       </c>
       <c r="O816" s="2">
-        <v>42</v>
+        <v>113</v>
       </c>
     </row>
     <row r="817" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39209,46 +39206,46 @@
         <v>1997</v>
       </c>
       <c r="B817" s="2">
-        <v>15025</v>
+        <v>22086</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E817" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F817" s="2">
-        <v>7946</v>
+        <v>8696</v>
       </c>
       <c r="G817" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H817" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I817" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J817" s="2">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K817" s="2">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="L817" s="2">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="M817" s="7">
-        <v>24.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="N817" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="O817" s="2">
-        <v>113</v>
+        <v>36</v>
       </c>
     </row>
     <row r="818" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39256,46 +39253,46 @@
         <v>1997</v>
       </c>
       <c r="B818" s="2">
-        <v>22086</v>
+        <v>22901</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F818" s="2">
-        <v>8696</v>
+        <v>8241</v>
       </c>
       <c r="G818" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H818" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I818" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J818" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K818" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L818" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M818" s="7">
-        <v>9.6999999999999993</v>
+        <v>6.9</v>
       </c>
       <c r="N818" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="O818" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="819" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39303,46 +39300,46 @@
         <v>1997</v>
       </c>
       <c r="B819" s="2">
-        <v>22901</v>
+        <v>26060</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="E819" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F819" s="2">
-        <v>8241</v>
+        <v>8282</v>
       </c>
       <c r="G819" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H819" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I819" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J819" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K819" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="L819" s="2">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M819" s="7">
-        <v>6.9</v>
+        <v>19.2</v>
       </c>
       <c r="N819" s="2">
-        <v>101</v>
+        <v>432</v>
       </c>
       <c r="O819" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="820" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39350,46 +39347,46 @@
         <v>1997</v>
       </c>
       <c r="B820" s="2">
-        <v>26060</v>
+        <v>27067</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D820" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E820" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F820" s="2">
-        <v>8282</v>
+        <v>8170</v>
       </c>
       <c r="G820" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H820" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I820" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J820" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K820" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L820" s="2">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="M820" s="7">
-        <v>19.2</v>
+        <v>24.5</v>
       </c>
       <c r="N820" s="2">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="O820" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="821" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39397,46 +39394,46 @@
         <v>1997</v>
       </c>
       <c r="B821" s="2">
-        <v>27067</v>
+        <v>29000</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E821" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F821" s="2">
-        <v>8170</v>
+        <v>8687</v>
       </c>
       <c r="G821" s="2">
         <v>9</v>
       </c>
       <c r="H821" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I821" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J821" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K821" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L821" s="2">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="M821" s="7">
-        <v>24.5</v>
+        <v>29.5</v>
       </c>
       <c r="N821" s="2">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="O821" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="822" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39444,46 +39441,46 @@
         <v>1997</v>
       </c>
       <c r="B822" s="2">
-        <v>29000</v>
+        <v>29102</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E822" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F822" s="2">
-        <v>8687</v>
+        <v>6742</v>
       </c>
       <c r="G822" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H822" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I822" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J822" s="2">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="K822" s="2">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="L822" s="2">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="M822" s="7">
-        <v>29.5</v>
+        <v>39.5</v>
       </c>
       <c r="N822" s="2">
-        <v>448</v>
+        <v>352</v>
       </c>
       <c r="O822" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="823" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39491,46 +39488,46 @@
         <v>1997</v>
       </c>
       <c r="B823" s="2">
-        <v>29102</v>
+        <v>29114</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F823" s="2">
-        <v>6742</v>
+        <v>8228</v>
       </c>
       <c r="G823" s="2">
         <v>7</v>
       </c>
       <c r="H823" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I823" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J823" s="2">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="K823" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="L823" s="2">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="M823" s="7">
-        <v>39.5</v>
+        <v>21.9</v>
       </c>
       <c r="N823" s="2">
-        <v>352</v>
+        <v>213</v>
       </c>
       <c r="O823" s="2">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="824" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39538,46 +39535,46 @@
         <v>1997</v>
       </c>
       <c r="B824" s="2">
-        <v>29114</v>
+        <v>29118</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E824" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F824" s="2">
-        <v>8228</v>
+        <v>8152</v>
       </c>
       <c r="G824" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H824" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I824" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J824" s="2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K824" s="2">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="L824" s="2">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="M824" s="7">
-        <v>21.9</v>
+        <v>42.1</v>
       </c>
       <c r="N824" s="2">
-        <v>213</v>
+        <v>461</v>
       </c>
       <c r="O824" s="2">
-        <v>86</v>
+        <v>158</v>
       </c>
     </row>
     <row r="825" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39585,46 +39582,46 @@
         <v>1997</v>
       </c>
       <c r="B825" s="2">
-        <v>29118</v>
+        <v>31303</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="E825" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F825" s="2">
-        <v>8152</v>
+        <v>5401</v>
       </c>
       <c r="G825" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H825" s="2">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I825" s="2">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="J825" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K825" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="L825" s="2">
-        <v>247</v>
-      </c>
-      <c r="M825" s="7">
-        <v>42.1</v>
+        <v>215</v>
+      </c>
+      <c r="M825" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="N825" s="2">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="O825" s="2">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="826" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39632,46 +39629,46 @@
         <v>1997</v>
       </c>
       <c r="B826" s="2">
-        <v>31303</v>
+        <v>33003</v>
       </c>
       <c r="C826" s="1" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="E826" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F826" s="2">
-        <v>5401</v>
+        <v>8360</v>
       </c>
       <c r="G826" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H826" s="2">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I826" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="J826" s="2">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K826" s="2">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L826" s="2">
-        <v>215</v>
-      </c>
-      <c r="M826" s="6" t="s">
-        <v>101</v>
+        <v>207</v>
+      </c>
+      <c r="M826" s="7">
+        <v>47.5</v>
       </c>
       <c r="N826" s="2">
-        <v>424</v>
+        <v>535</v>
       </c>
       <c r="O826" s="2">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="827" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39679,46 +39676,46 @@
         <v>1997</v>
       </c>
       <c r="B827" s="2">
-        <v>33003</v>
+        <v>34020</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E827" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F827" s="2">
-        <v>8360</v>
+        <v>8459</v>
       </c>
       <c r="G827" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H827" s="2">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I827" s="2">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J827" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K827" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="L827" s="2">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="M827" s="7">
-        <v>47.5</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="N827" s="2">
-        <v>535</v>
+        <v>384</v>
       </c>
       <c r="O827" s="2">
-        <v>202</v>
+        <v>133</v>
       </c>
     </row>
     <row r="828" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39726,46 +39723,46 @@
         <v>1997</v>
       </c>
       <c r="B828" s="2">
-        <v>34020</v>
+        <v>35003</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="D828" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E828" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F828" s="2">
-        <v>8459</v>
+        <v>8499</v>
       </c>
       <c r="G828" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H828" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I828" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J828" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K828" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="L828" s="2">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="M828" s="7">
-        <v>36.700000000000003</v>
+        <v>45.2</v>
       </c>
       <c r="N828" s="2">
-        <v>384</v>
+        <v>597</v>
       </c>
       <c r="O828" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="829" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39773,46 +39770,46 @@
         <v>1997</v>
       </c>
       <c r="B829" s="2">
-        <v>35003</v>
+        <v>36030</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D829" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F829" s="2">
-        <v>8499</v>
+        <v>6833</v>
       </c>
       <c r="G829" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H829" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I829" s="2">
         <v>32</v>
       </c>
       <c r="J829" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K829" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L829" s="2">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="M829" s="7">
-        <v>45.2</v>
+        <v>45.9</v>
       </c>
       <c r="N829" s="2">
-        <v>597</v>
+        <v>658</v>
       </c>
       <c r="O829" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
     </row>
     <row r="830" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39820,46 +39817,46 @@
         <v>1997</v>
       </c>
       <c r="B830" s="2">
-        <v>36030</v>
+        <v>44008</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="D830" s="1" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="E830" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F830" s="2">
-        <v>6833</v>
+        <v>8616</v>
       </c>
       <c r="G830" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H830" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I830" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J830" s="2">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K830" s="2">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="L830" s="2">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="M830" s="7">
-        <v>45.9</v>
+        <v>25.6</v>
       </c>
       <c r="N830" s="2">
-        <v>658</v>
+        <v>340</v>
       </c>
       <c r="O830" s="2">
-        <v>171</v>
+        <v>112</v>
       </c>
     </row>
     <row r="831" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39867,46 +39864,46 @@
         <v>1997</v>
       </c>
       <c r="B831" s="2">
-        <v>44008</v>
+        <v>44015</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D831" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="E831" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F831" s="2">
-        <v>8616</v>
+        <v>8673</v>
       </c>
       <c r="G831" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H831" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I831" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J831" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K831" s="2">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L831" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="M831" s="7">
-        <v>25.6</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N831" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="O831" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="832" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39914,46 +39911,46 @@
         <v>1997</v>
       </c>
       <c r="B832" s="2">
-        <v>44015</v>
+        <v>45025</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D832" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E832" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F832" s="2">
-        <v>8673</v>
+        <v>8462</v>
       </c>
       <c r="G832" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H832" s="2">
         <v>17</v>
       </c>
       <c r="I832" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J832" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K832" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L832" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M832" s="7">
-        <v>32.799999999999997</v>
+        <v>34.9</v>
       </c>
       <c r="N832" s="2">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="O832" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="833" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39961,46 +39958,46 @@
         <v>1997</v>
       </c>
       <c r="B833" s="2">
-        <v>45025</v>
+        <v>48002</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E833" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F833" s="2">
-        <v>8462</v>
+        <v>8498</v>
       </c>
       <c r="G833" s="2">
+        <v>4</v>
+      </c>
+      <c r="H833" s="2">
+        <v>7</v>
+      </c>
+      <c r="I833" s="2">
         <v>10</v>
       </c>
-      <c r="H833" s="2">
-        <v>17</v>
-      </c>
-      <c r="I833" s="2">
-        <v>27</v>
-      </c>
       <c r="J833" s="2">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K833" s="2">
+        <v>31</v>
+      </c>
+      <c r="L833" s="2">
+        <v>74</v>
+      </c>
+      <c r="M833" s="7">
+        <v>14.6</v>
+      </c>
+      <c r="N833" s="2">
+        <v>238</v>
+      </c>
+      <c r="O833" s="2">
         <v>68</v>
-      </c>
-      <c r="L833" s="2">
-        <v>161</v>
-      </c>
-      <c r="M833" s="7">
-        <v>34.9</v>
-      </c>
-      <c r="N833" s="2">
-        <v>330</v>
-      </c>
-      <c r="O833" s="2">
-        <v>112</v>
       </c>
     </row>
     <row r="834" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40008,46 +40005,46 @@
         <v>1997</v>
       </c>
       <c r="B834" s="2">
-        <v>48002</v>
+        <v>49010</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E834" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F834" s="2">
-        <v>8498</v>
+        <v>8646</v>
       </c>
       <c r="G834" s="2">
+        <v>2</v>
+      </c>
+      <c r="H834" s="2">
+        <v>2</v>
+      </c>
+      <c r="I834" s="2">
+        <v>3</v>
+      </c>
+      <c r="J834" s="2">
         <v>4</v>
       </c>
-      <c r="H834" s="2">
-        <v>7</v>
-      </c>
-      <c r="I834" s="2">
-        <v>10</v>
-      </c>
-      <c r="J834" s="2">
-        <v>16</v>
-      </c>
       <c r="K834" s="2">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="L834" s="2">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="M834" s="7">
-        <v>14.6</v>
+        <v>4.3</v>
       </c>
       <c r="N834" s="2">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="O834" s="2">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="835" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40055,46 +40052,46 @@
         <v>1997</v>
       </c>
       <c r="B835" s="2">
-        <v>49010</v>
+        <v>51001</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="E835" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F835" s="2">
-        <v>8646</v>
+        <v>8615</v>
       </c>
       <c r="G835" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H835" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I835" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J835" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K835" s="2">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="L835" s="2">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="M835" s="7">
-        <v>4.3</v>
+        <v>18</v>
       </c>
       <c r="N835" s="2">
-        <v>71</v>
+        <v>409</v>
       </c>
       <c r="O835" s="2">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="836" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40102,46 +40099,46 @@
         <v>1997</v>
       </c>
       <c r="B836" s="2">
-        <v>51001</v>
+        <v>56051</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D836" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E836" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F836" s="2">
-        <v>8615</v>
+        <v>8465</v>
       </c>
       <c r="G836" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H836" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I836" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J836" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K836" s="2">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L836" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M836" s="7">
-        <v>18</v>
+        <v>14.2</v>
       </c>
       <c r="N836" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="O836" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="837" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40149,46 +40146,46 @@
         <v>1997</v>
       </c>
       <c r="B837" s="2">
-        <v>56051</v>
+        <v>63200</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="E837" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F837" s="2">
-        <v>8465</v>
+        <v>8156</v>
       </c>
       <c r="G837" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H837" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I837" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J837" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K837" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L837" s="2">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="M837" s="7">
-        <v>14.2</v>
+        <v>20.9</v>
       </c>
       <c r="N837" s="2">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="O837" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="838" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40196,46 +40193,46 @@
         <v>1997</v>
       </c>
       <c r="B838" s="2">
-        <v>63200</v>
+        <v>71068</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E838" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F838" s="2">
-        <v>8156</v>
+        <v>8731</v>
       </c>
       <c r="G838" s="2">
+        <v>2</v>
+      </c>
+      <c r="H838" s="2">
         <v>5</v>
       </c>
-      <c r="H838" s="2">
-        <v>9</v>
-      </c>
       <c r="I838" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J838" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K838" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L838" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="M838" s="7">
-        <v>20.9</v>
+        <v>16.7</v>
       </c>
       <c r="N838" s="2">
-        <v>374</v>
+        <v>220</v>
       </c>
       <c r="O838" s="2">
-        <v>122</v>
+        <v>60</v>
       </c>
     </row>
     <row r="839" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40243,93 +40240,93 @@
         <v>1997</v>
       </c>
       <c r="B839" s="2">
-        <v>71068</v>
+        <v>77203</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E839" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F839" s="2">
-        <v>8731</v>
+        <v>6855</v>
       </c>
       <c r="G839" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H839" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I839" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J839" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K839" s="2">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L839" s="2">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M839" s="7">
-        <v>16.7</v>
+        <v>12.5</v>
       </c>
       <c r="N839" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O839" s="2">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="840" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="2">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B840" s="2">
-        <v>77203</v>
+        <v>12008</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="E840" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F840" s="2">
-        <v>6855</v>
+        <v>8720</v>
       </c>
       <c r="G840" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H840" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I840" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J840" s="2">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="K840" s="2">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="L840" s="2">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="M840" s="7">
-        <v>12.5</v>
+        <v>39.1</v>
       </c>
       <c r="N840" s="2">
-        <v>215</v>
+        <v>342</v>
       </c>
       <c r="O840" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="841" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40337,46 +40334,46 @@
         <v>1996</v>
       </c>
       <c r="B841" s="2">
-        <v>12008</v>
+        <v>14064</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="E841" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F841" s="2">
-        <v>8720</v>
+        <v>8675</v>
       </c>
       <c r="G841" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H841" s="2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I841" s="2">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J841" s="2">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K841" s="2">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="L841" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="M841" s="7">
-        <v>39.1</v>
+        <v>23.5</v>
       </c>
       <c r="N841" s="2">
-        <v>342</v>
+        <v>220</v>
       </c>
       <c r="O841" s="2">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="842" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40384,46 +40381,46 @@
         <v>1996</v>
       </c>
       <c r="B842" s="2">
-        <v>14064</v>
+        <v>15025</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E842" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F842" s="2">
-        <v>8675</v>
+        <v>8637</v>
       </c>
       <c r="G842" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H842" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I842" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J842" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K842" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L842" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M842" s="7">
-        <v>23.5</v>
+        <v>27.9</v>
       </c>
       <c r="N842" s="2">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="O842" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="843" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40431,46 +40428,46 @@
         <v>1996</v>
       </c>
       <c r="B843" s="2">
-        <v>15013</v>
+        <v>22086</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E843" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F843" s="2">
-        <v>6865</v>
+        <v>7487</v>
       </c>
       <c r="G843" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H843" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I843" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J843" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K843" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L843" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M843" s="7">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="N843" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O843" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="844" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40478,46 +40475,46 @@
         <v>1996</v>
       </c>
       <c r="B844" s="2">
-        <v>15025</v>
+        <v>26060</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="E844" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F844" s="2">
-        <v>8637</v>
+        <v>8638</v>
       </c>
       <c r="G844" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H844" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I844" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J844" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K844" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L844" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M844" s="7">
-        <v>27.9</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="N844" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="O844" s="2">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="845" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40525,46 +40522,46 @@
         <v>1996</v>
       </c>
       <c r="B845" s="2">
-        <v>22086</v>
+        <v>26069</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="E845" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F845" s="2">
-        <v>7487</v>
+        <v>3236</v>
       </c>
       <c r="G845" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H845" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I845" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J845" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K845" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L845" s="2">
-        <v>40</v>
-      </c>
-      <c r="M845" s="7">
-        <v>9.5</v>
+        <v>54</v>
+      </c>
+      <c r="M845" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="N845" s="2">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="O845" s="2">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="846" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40572,46 +40569,46 @@
         <v>1996</v>
       </c>
       <c r="B846" s="2">
-        <v>26060</v>
+        <v>27067</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E846" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F846" s="2">
-        <v>8638</v>
+        <v>7253</v>
       </c>
       <c r="G846" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H846" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I846" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J846" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K846" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L846" s="2">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="M846" s="7">
-        <v>20.399999999999999</v>
+        <v>28.5</v>
       </c>
       <c r="N846" s="2">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="O846" s="2">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="847" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40619,46 +40616,46 @@
         <v>1996</v>
       </c>
       <c r="B847" s="2">
-        <v>26069</v>
+        <v>29000</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="E847" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F847" s="2">
-        <v>3236</v>
+        <v>8188</v>
       </c>
       <c r="G847" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H847" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I847" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J847" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K847" s="2">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="L847" s="2">
-        <v>54</v>
-      </c>
-      <c r="M847" s="6" t="s">
-        <v>101</v>
+        <v>185</v>
+      </c>
+      <c r="M847" s="7">
+        <v>37.200000000000003</v>
       </c>
       <c r="N847" s="2">
-        <v>156</v>
+        <v>427</v>
       </c>
       <c r="O847" s="2">
-        <v>54</v>
+        <v>170</v>
       </c>
     </row>
     <row r="848" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40666,46 +40663,46 @@
         <v>1996</v>
       </c>
       <c r="B848" s="2">
-        <v>27067</v>
+        <v>29102</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="E848" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F848" s="2">
-        <v>7253</v>
+        <v>8106</v>
       </c>
       <c r="G848" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H848" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I848" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J848" s="2">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="K848" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="L848" s="2">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="M848" s="7">
-        <v>28.5</v>
+        <v>41.7</v>
       </c>
       <c r="N848" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="O848" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="849" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40713,46 +40710,46 @@
         <v>1996</v>
       </c>
       <c r="B849" s="2">
-        <v>29000</v>
+        <v>29114</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E849" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F849" s="2">
-        <v>8188</v>
+        <v>7461</v>
       </c>
       <c r="G849" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H849" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I849" s="2">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J849" s="2">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K849" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="L849" s="2">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="M849" s="7">
-        <v>37.200000000000003</v>
+        <v>25.5</v>
       </c>
       <c r="N849" s="2">
-        <v>427</v>
+        <v>250</v>
       </c>
       <c r="O849" s="2">
-        <v>170</v>
+        <v>101</v>
       </c>
     </row>
     <row r="850" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40760,46 +40757,46 @@
         <v>1996</v>
       </c>
       <c r="B850" s="2">
-        <v>29102</v>
+        <v>29118</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="E850" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F850" s="2">
-        <v>8106</v>
+        <v>8363</v>
       </c>
       <c r="G850" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H850" s="2">
         <v>16</v>
       </c>
       <c r="I850" s="2">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J850" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K850" s="2">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="L850" s="2">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="M850" s="7">
-        <v>41.7</v>
+        <v>44</v>
       </c>
       <c r="N850" s="2">
-        <v>368</v>
+        <v>460</v>
       </c>
       <c r="O850" s="2">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="851" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40807,46 +40804,46 @@
         <v>1996</v>
       </c>
       <c r="B851" s="2">
-        <v>29114</v>
+        <v>31303</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="E851" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F851" s="2">
-        <v>7461</v>
+        <v>8723</v>
       </c>
       <c r="G851" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H851" s="2">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I851" s="2">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="J851" s="2">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="K851" s="2">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="L851" s="2">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="M851" s="7">
-        <v>25.5</v>
+        <v>76</v>
       </c>
       <c r="N851" s="2">
-        <v>250</v>
+        <v>496</v>
       </c>
       <c r="O851" s="2">
-        <v>101</v>
+        <v>224</v>
       </c>
     </row>
     <row r="852" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40854,46 +40851,46 @@
         <v>1996</v>
       </c>
       <c r="B852" s="2">
-        <v>29118</v>
+        <v>33003</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E852" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F852" s="2">
-        <v>8363</v>
+        <v>8591</v>
       </c>
       <c r="G852" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H852" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I852" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J852" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K852" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L852" s="2">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="M852" s="7">
-        <v>44</v>
+        <v>45.4</v>
       </c>
       <c r="N852" s="2">
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="O852" s="2">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="853" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40901,46 +40898,46 @@
         <v>1996</v>
       </c>
       <c r="B853" s="2">
-        <v>31303</v>
+        <v>34020</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="E853" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F853" s="2">
-        <v>8723</v>
+        <v>8615</v>
       </c>
       <c r="G853" s="2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H853" s="2">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I853" s="2">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="J853" s="2">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="K853" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="L853" s="2">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="M853" s="7">
-        <v>76</v>
+        <v>38.9</v>
       </c>
       <c r="N853" s="2">
-        <v>496</v>
+        <v>394</v>
       </c>
       <c r="O853" s="2">
-        <v>224</v>
+        <v>157</v>
       </c>
     </row>
     <row r="854" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40948,46 +40945,46 @@
         <v>1996</v>
       </c>
       <c r="B854" s="2">
-        <v>33003</v>
+        <v>35003</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="E854" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F854" s="2">
-        <v>8591</v>
+        <v>8659</v>
       </c>
       <c r="G854" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H854" s="2">
         <v>21</v>
       </c>
       <c r="I854" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J854" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K854" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L854" s="2">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="M854" s="7">
-        <v>45.4</v>
+        <v>47.2</v>
       </c>
       <c r="N854" s="2">
-        <v>550</v>
+        <v>444</v>
       </c>
       <c r="O854" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="855" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -40995,46 +40992,46 @@
         <v>1996</v>
       </c>
       <c r="B855" s="2">
-        <v>34020</v>
+        <v>36030</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="D855" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F855" s="2">
+        <v>6938</v>
+      </c>
+      <c r="G855" s="2">
+        <v>17</v>
+      </c>
+      <c r="H855" s="2">
+        <v>26</v>
+      </c>
+      <c r="I855" s="2">
+        <v>38</v>
+      </c>
+      <c r="J855" s="2">
+        <v>57</v>
+      </c>
+      <c r="K855" s="2">
         <v>110</v>
       </c>
-      <c r="E855" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F855" s="2">
-        <v>8615</v>
-      </c>
-      <c r="G855" s="2">
-        <v>9</v>
-      </c>
-      <c r="H855" s="2">
-        <v>18</v>
-      </c>
-      <c r="I855" s="2">
-        <v>29</v>
-      </c>
-      <c r="J855" s="2">
-        <v>45</v>
-      </c>
-      <c r="K855" s="2">
-        <v>80</v>
-      </c>
       <c r="L855" s="2">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="M855" s="7">
-        <v>38.9</v>
+        <v>54.5</v>
       </c>
       <c r="N855" s="2">
-        <v>394</v>
+        <v>627</v>
       </c>
       <c r="O855" s="2">
-        <v>157</v>
+        <v>240</v>
       </c>
     </row>
     <row r="856" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41042,46 +41039,46 @@
         <v>1996</v>
       </c>
       <c r="B856" s="2">
-        <v>35003</v>
+        <v>44008</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="E856" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F856" s="2">
-        <v>8659</v>
+        <v>8702</v>
       </c>
       <c r="G856" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H856" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I856" s="2">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J856" s="2">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="K856" s="2">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="L856" s="2">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="M856" s="7">
-        <v>47.2</v>
+        <v>22.5</v>
       </c>
       <c r="N856" s="2">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="O856" s="2">
-        <v>201</v>
+        <v>126</v>
       </c>
     </row>
     <row r="857" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41089,46 +41086,46 @@
         <v>1996</v>
       </c>
       <c r="B857" s="2">
-        <v>36030</v>
+        <v>44015</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E857" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F857" s="2">
-        <v>6938</v>
+        <v>8477</v>
       </c>
       <c r="G857" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H857" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I857" s="2">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J857" s="2">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K857" s="2">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="L857" s="2">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="M857" s="7">
-        <v>54.5</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="N857" s="2">
-        <v>627</v>
+        <v>392</v>
       </c>
       <c r="O857" s="2">
-        <v>240</v>
+        <v>115</v>
       </c>
     </row>
     <row r="858" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41136,46 +41133,46 @@
         <v>1996</v>
       </c>
       <c r="B858" s="2">
-        <v>44008</v>
+        <v>45025</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E858" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F858" s="2">
-        <v>8702</v>
+        <v>8625</v>
       </c>
       <c r="G858" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H858" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I858" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J858" s="2">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K858" s="2">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="L858" s="2">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="M858" s="7">
-        <v>22.5</v>
+        <v>34.5</v>
       </c>
       <c r="N858" s="2">
-        <v>508</v>
+        <v>381</v>
       </c>
       <c r="O858" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="859" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41183,46 +41180,46 @@
         <v>1996</v>
       </c>
       <c r="B859" s="2">
-        <v>44015</v>
+        <v>48002</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E859" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F859" s="2">
-        <v>8477</v>
+        <v>6989</v>
       </c>
       <c r="G859" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H859" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I859" s="2">
+        <v>21</v>
+      </c>
+      <c r="J859" s="2">
+        <v>29</v>
+      </c>
+      <c r="K859" s="2">
+        <v>43</v>
+      </c>
+      <c r="L859" s="2">
+        <v>79</v>
+      </c>
+      <c r="M859" s="7">
         <v>24</v>
       </c>
-      <c r="J859" s="2">
-        <v>35</v>
-      </c>
-      <c r="K859" s="2">
-        <v>69</v>
-      </c>
-      <c r="L859" s="2">
-        <v>165</v>
-      </c>
-      <c r="M859" s="7">
-        <v>33.200000000000003</v>
-      </c>
       <c r="N859" s="2">
-        <v>392</v>
+        <v>221</v>
       </c>
       <c r="O859" s="2">
-        <v>115</v>
+        <v>65</v>
       </c>
     </row>
     <row r="860" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41230,46 +41227,46 @@
         <v>1996</v>
       </c>
       <c r="B860" s="2">
-        <v>45025</v>
+        <v>49010</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="E860" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F860" s="2">
-        <v>8625</v>
+        <v>8635</v>
       </c>
       <c r="G860" s="2">
+        <v>2</v>
+      </c>
+      <c r="H860" s="2">
+        <v>2</v>
+      </c>
+      <c r="I860" s="2">
+        <v>3</v>
+      </c>
+      <c r="J860" s="2">
+        <v>4</v>
+      </c>
+      <c r="K860" s="2">
         <v>8</v>
       </c>
-      <c r="H860" s="2">
-        <v>16</v>
-      </c>
-      <c r="I860" s="2">
-        <v>26</v>
-      </c>
-      <c r="J860" s="2">
-        <v>39</v>
-      </c>
-      <c r="K860" s="2">
-        <v>70</v>
-      </c>
       <c r="L860" s="2">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="M860" s="7">
-        <v>34.5</v>
+        <v>4.2</v>
       </c>
       <c r="N860" s="2">
-        <v>381</v>
+        <v>62</v>
       </c>
       <c r="O860" s="2">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="861" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41277,46 +41274,46 @@
         <v>1996</v>
       </c>
       <c r="B861" s="2">
-        <v>48002</v>
+        <v>51001</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="E861" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F861" s="2">
-        <v>6989</v>
+        <v>6525</v>
       </c>
       <c r="G861" s="2">
         <v>8</v>
       </c>
       <c r="H861" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I861" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J861" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K861" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L861" s="2">
-        <v>79</v>
-      </c>
-      <c r="M861" s="7">
-        <v>24</v>
+        <v>106</v>
+      </c>
+      <c r="M861" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="N861" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O861" s="2">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="862" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41324,46 +41321,46 @@
         <v>1996</v>
       </c>
       <c r="B862" s="2">
-        <v>49010</v>
+        <v>56051</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E862" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F862" s="2">
-        <v>8635</v>
+        <v>8555</v>
       </c>
       <c r="G862" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H862" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I862" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J862" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K862" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="L862" s="2">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="M862" s="7">
-        <v>4.2</v>
+        <v>17</v>
       </c>
       <c r="N862" s="2">
-        <v>62</v>
+        <v>454</v>
       </c>
       <c r="O862" s="2">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="863" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41371,46 +41368,46 @@
         <v>1996</v>
       </c>
       <c r="B863" s="2">
-        <v>51001</v>
+        <v>63200</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E863" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F863" s="2">
-        <v>6525</v>
+        <v>8739</v>
       </c>
       <c r="G863" s="2">
+        <v>5</v>
+      </c>
+      <c r="H863" s="2">
         <v>8</v>
       </c>
-      <c r="H863" s="2">
+      <c r="I863" s="2">
         <v>13</v>
       </c>
-      <c r="I863" s="2">
-        <v>18</v>
-      </c>
       <c r="J863" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K863" s="2">
         <v>44</v>
       </c>
       <c r="L863" s="2">
-        <v>106</v>
-      </c>
-      <c r="M863" s="6" t="s">
-        <v>101</v>
+        <v>133</v>
+      </c>
+      <c r="M863" s="7">
+        <v>20.8</v>
       </c>
       <c r="N863" s="2">
-        <v>228</v>
+        <v>433</v>
       </c>
       <c r="O863" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="864" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41418,46 +41415,46 @@
         <v>1996</v>
       </c>
       <c r="B864" s="2">
-        <v>56051</v>
+        <v>71068</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="E864" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F864" s="2">
-        <v>8555</v>
+        <v>5940</v>
       </c>
       <c r="G864" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H864" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I864" s="2">
         <v>12</v>
       </c>
       <c r="J864" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K864" s="2">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="L864" s="2">
-        <v>104</v>
-      </c>
-      <c r="M864" s="7">
-        <v>17</v>
+        <v>153</v>
+      </c>
+      <c r="M864" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="N864" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="O864" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="865" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41465,140 +41462,140 @@
         <v>1996</v>
       </c>
       <c r="B865" s="2">
-        <v>63200</v>
+        <v>77203</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E865" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F865" s="2">
-        <v>8739</v>
+        <v>8641</v>
       </c>
       <c r="G865" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H865" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I865" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J865" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K865" s="2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="L865" s="2">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="M865" s="7">
-        <v>20.8</v>
+        <v>14</v>
       </c>
       <c r="N865" s="2">
-        <v>433</v>
+        <v>241</v>
       </c>
       <c r="O865" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="866" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="2">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B866" s="2">
-        <v>71068</v>
+        <v>12008</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D866" s="1" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="E866" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F866" s="2">
-        <v>5940</v>
-      </c>
-      <c r="G866" s="2">
-        <v>2</v>
-      </c>
-      <c r="H866" s="2">
-        <v>6</v>
-      </c>
-      <c r="I866" s="2">
-        <v>12</v>
-      </c>
-      <c r="J866" s="2">
-        <v>23</v>
-      </c>
-      <c r="K866" s="2">
-        <v>48</v>
-      </c>
-      <c r="L866" s="2">
-        <v>153</v>
-      </c>
-      <c r="M866" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N866" s="2">
-        <v>456</v>
-      </c>
-      <c r="O866" s="2">
-        <v>114</v>
+      <c r="F866" s="11">
+        <v>8607</v>
+      </c>
+      <c r="G866" s="11">
+        <v>10</v>
+      </c>
+      <c r="H866" s="11">
+        <v>20</v>
+      </c>
+      <c r="I866" s="11">
+        <v>30</v>
+      </c>
+      <c r="J866" s="11">
+        <v>40</v>
+      </c>
+      <c r="K866" s="11">
+        <v>70</v>
+      </c>
+      <c r="L866" s="11">
+        <v>170</v>
+      </c>
+      <c r="M866" s="12">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="N866" s="11">
+        <v>580</v>
+      </c>
+      <c r="O866" s="11">
+        <v>198</v>
       </c>
     </row>
     <row r="867" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="2">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B867" s="2">
-        <v>77203</v>
+        <v>14064</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E867" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F867" s="2">
-        <v>8641</v>
-      </c>
-      <c r="G867" s="2">
-        <v>4</v>
-      </c>
-      <c r="H867" s="2">
-        <v>6</v>
-      </c>
-      <c r="I867" s="2">
-        <v>9</v>
-      </c>
-      <c r="J867" s="2">
-        <v>14</v>
-      </c>
-      <c r="K867" s="2">
-        <v>26</v>
-      </c>
-      <c r="L867" s="2">
-        <v>91</v>
-      </c>
-      <c r="M867" s="7">
-        <v>14</v>
-      </c>
-      <c r="N867" s="2">
-        <v>241</v>
-      </c>
-      <c r="O867" s="2">
-        <v>105</v>
+      <c r="F867" s="11">
+        <v>8645</v>
+      </c>
+      <c r="G867" s="11">
+        <v>10</v>
+      </c>
+      <c r="H867" s="11">
+        <v>10</v>
+      </c>
+      <c r="I867" s="11">
+        <v>20</v>
+      </c>
+      <c r="J867" s="11">
+        <v>30</v>
+      </c>
+      <c r="K867" s="11">
+        <v>50</v>
+      </c>
+      <c r="L867" s="11">
+        <v>100</v>
+      </c>
+      <c r="M867" s="12">
+        <v>23.4</v>
+      </c>
+      <c r="N867" s="11">
+        <v>430</v>
+      </c>
+      <c r="O867" s="11">
+        <v>97</v>
       </c>
     </row>
     <row r="868" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41606,19 +41603,19 @@
         <v>1995</v>
       </c>
       <c r="B868" s="2">
-        <v>12008</v>
+        <v>15025</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E868" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F868" s="11">
-        <v>8607</v>
+        <v>4293</v>
       </c>
       <c r="G868" s="11">
         <v>10</v>
@@ -41627,25 +41624,25 @@
         <v>20</v>
       </c>
       <c r="I868" s="11">
+        <v>20</v>
+      </c>
+      <c r="J868" s="11">
         <v>30</v>
       </c>
-      <c r="J868" s="11">
-        <v>40</v>
-      </c>
       <c r="K868" s="11">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L868" s="11">
-        <v>170</v>
-      </c>
-      <c r="M868" s="12">
-        <v>38.299999999999997</v>
+        <v>110</v>
+      </c>
+      <c r="M868" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="N868" s="11">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="O868" s="11">
-        <v>198</v>
+        <v>80</v>
       </c>
     </row>
     <row r="869" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41653,46 +41650,46 @@
         <v>1995</v>
       </c>
       <c r="B869" s="2">
-        <v>14064</v>
+        <v>22086</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E869" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F869" s="11">
-        <v>8645</v>
+        <v>7852</v>
       </c>
       <c r="G869" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H869" s="11">
         <v>10</v>
       </c>
       <c r="I869" s="11">
+        <v>10</v>
+      </c>
+      <c r="J869" s="11">
+        <v>10</v>
+      </c>
+      <c r="K869" s="11">
         <v>20</v>
       </c>
-      <c r="J869" s="11">
-        <v>30</v>
-      </c>
-      <c r="K869" s="11">
-        <v>50</v>
-      </c>
       <c r="L869" s="11">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M869" s="12">
-        <v>23.4</v>
+        <v>11.5</v>
       </c>
       <c r="N869" s="11">
-        <v>430</v>
+        <v>110</v>
       </c>
       <c r="O869" s="11">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="870" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41700,22 +41697,22 @@
         <v>1995</v>
       </c>
       <c r="B870" s="2">
-        <v>15013</v>
+        <v>26060</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E870" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F870" s="11">
-        <v>8712</v>
+        <v>8676</v>
       </c>
       <c r="G870" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H870" s="11">
         <v>10</v>
@@ -41724,22 +41721,22 @@
         <v>10</v>
       </c>
       <c r="J870" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K870" s="11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L870" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M870" s="12">
-        <v>10.8</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="N870" s="11">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="O870" s="11">
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="871" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41747,46 +41744,46 @@
         <v>1995</v>
       </c>
       <c r="B871" s="2">
-        <v>15025</v>
+        <v>26069</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="E871" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F871" s="11">
-        <v>4293</v>
+        <v>7728</v>
       </c>
       <c r="G871" s="11">
         <v>10</v>
       </c>
       <c r="H871" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I871" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J871" s="11">
+        <v>10</v>
+      </c>
+      <c r="K871" s="11">
         <v>30</v>
       </c>
-      <c r="K871" s="11">
-        <v>50</v>
-      </c>
       <c r="L871" s="11">
-        <v>110</v>
-      </c>
-      <c r="M871" s="12" t="s">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="M871" s="11">
+        <v>15</v>
       </c>
       <c r="N871" s="11">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O871" s="11">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="872" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41794,46 +41791,46 @@
         <v>1995</v>
       </c>
       <c r="B872" s="2">
-        <v>22086</v>
+        <v>27067</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="E872" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F872" s="11">
-        <v>7852</v>
+        <v>8676</v>
       </c>
       <c r="G872" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H872" s="11">
         <v>10</v>
       </c>
       <c r="I872" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J872" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K872" s="11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L872" s="11">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="M872" s="12">
-        <v>11.5</v>
+        <v>24.9</v>
       </c>
       <c r="N872" s="11">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="O872" s="11">
-        <v>35</v>
+        <v>133</v>
       </c>
     </row>
     <row r="873" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41841,46 +41838,46 @@
         <v>1995</v>
       </c>
       <c r="B873" s="2">
-        <v>26060</v>
+        <v>29000</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="E873" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F873" s="11">
-        <v>8676</v>
+        <v>7796</v>
       </c>
       <c r="G873" s="11">
         <v>10</v>
       </c>
       <c r="H873" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I873" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J873" s="11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K873" s="11">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L873" s="11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M873" s="12">
-        <v>19.899999999999999</v>
+        <v>34.6</v>
       </c>
       <c r="N873" s="11">
-        <v>270</v>
+        <v>530</v>
       </c>
       <c r="O873" s="11">
-        <v>95</v>
+        <v>245</v>
       </c>
     </row>
     <row r="874" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41888,46 +41885,46 @@
         <v>1995</v>
       </c>
       <c r="B874" s="2">
-        <v>26069</v>
+        <v>29102</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D874" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E874" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F874" s="11">
-        <v>7728</v>
+        <v>8637</v>
       </c>
       <c r="G874" s="11">
         <v>10</v>
       </c>
       <c r="H874" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I874" s="11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J874" s="11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K874" s="11">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L874" s="11">
-        <v>60</v>
-      </c>
-      <c r="M874" s="11">
-        <v>15</v>
+        <v>190</v>
+      </c>
+      <c r="M874" s="12">
+        <v>43.6</v>
       </c>
       <c r="N874" s="11">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="O874" s="11">
-        <v>60</v>
+        <v>154</v>
       </c>
     </row>
     <row r="875" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41935,19 +41932,19 @@
         <v>1995</v>
       </c>
       <c r="B875" s="2">
-        <v>27067</v>
+        <v>29114</v>
       </c>
       <c r="C875" s="1" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="D875" s="1" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="E875" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F875" s="11">
-        <v>8676</v>
+        <v>7712</v>
       </c>
       <c r="G875" s="11">
         <v>10</v>
@@ -41962,16 +41959,16 @@
         <v>20</v>
       </c>
       <c r="K875" s="11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L875" s="11">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="M875" s="12">
-        <v>24.9</v>
+        <v>22.8</v>
       </c>
       <c r="N875" s="11">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="O875" s="11">
         <v>133</v>
@@ -41982,19 +41979,19 @@
         <v>1995</v>
       </c>
       <c r="B876" s="2">
-        <v>29000</v>
+        <v>29118</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E876" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F876" s="11">
-        <v>7796</v>
+        <v>7846</v>
       </c>
       <c r="G876" s="11">
         <v>10</v>
@@ -42003,25 +42000,25 @@
         <v>20</v>
       </c>
       <c r="I876" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J876" s="11">
         <v>40</v>
       </c>
       <c r="K876" s="11">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L876" s="11">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="M876" s="12">
-        <v>34.6</v>
+        <v>45.6</v>
       </c>
       <c r="N876" s="11">
-        <v>530</v>
+        <v>880</v>
       </c>
       <c r="O876" s="11">
-        <v>245</v>
+        <v>336</v>
       </c>
     </row>
     <row r="877" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42029,31 +42026,31 @@
         <v>1995</v>
       </c>
       <c r="B877" s="2">
-        <v>29102</v>
+        <v>31103</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E877" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F877" s="11">
-        <v>8637</v>
+        <v>7181</v>
       </c>
       <c r="G877" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H877" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I877" s="11">
         <v>40</v>
       </c>
       <c r="J877" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K877" s="11">
         <v>90</v>
@@ -42062,13 +42059,13 @@
         <v>190</v>
       </c>
       <c r="M877" s="12">
-        <v>43.6</v>
+        <v>50.8</v>
       </c>
       <c r="N877" s="11">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="O877" s="11">
-        <v>154</v>
+        <v>241</v>
       </c>
     </row>
     <row r="878" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42076,46 +42073,46 @@
         <v>1995</v>
       </c>
       <c r="B878" s="2">
-        <v>29114</v>
+        <v>33003</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="E878" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F878" s="11">
-        <v>7712</v>
+        <v>7289</v>
       </c>
       <c r="G878" s="11">
         <v>10</v>
       </c>
       <c r="H878" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I878" s="11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J878" s="11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K878" s="11">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L878" s="11">
-        <v>110</v>
-      </c>
-      <c r="M878" s="12">
-        <v>22.8</v>
+        <v>250</v>
+      </c>
+      <c r="M878" s="11">
+        <v>49</v>
       </c>
       <c r="N878" s="11">
-        <v>360</v>
+        <v>850</v>
       </c>
       <c r="O878" s="11">
-        <v>133</v>
+        <v>322</v>
       </c>
     </row>
     <row r="879" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42123,25 +42120,25 @@
         <v>1995</v>
       </c>
       <c r="B879" s="2">
-        <v>29118</v>
+        <v>34020</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="E879" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F879" s="11">
-        <v>7846</v>
+        <v>8713</v>
       </c>
       <c r="G879" s="11">
         <v>10</v>
       </c>
       <c r="H879" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I879" s="11">
         <v>30</v>
@@ -42150,19 +42147,19 @@
         <v>40</v>
       </c>
       <c r="K879" s="11">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L879" s="11">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="M879" s="12">
-        <v>45.6</v>
+        <v>36.4</v>
       </c>
       <c r="N879" s="11">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="O879" s="11">
-        <v>336</v>
+        <v>211</v>
       </c>
     </row>
     <row r="880" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42170,19 +42167,19 @@
         <v>1995</v>
       </c>
       <c r="B880" s="2">
-        <v>31103</v>
+        <v>35003</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E880" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F880" s="11">
-        <v>7181</v>
+        <v>8481</v>
       </c>
       <c r="G880" s="11">
         <v>20</v>
@@ -42191,25 +42188,25 @@
         <v>30</v>
       </c>
       <c r="I880" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J880" s="11">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K880" s="11">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="L880" s="11">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="M880" s="12">
-        <v>50.8</v>
+        <v>64.8</v>
       </c>
       <c r="N880" s="11">
-        <v>550</v>
+        <v>920</v>
       </c>
       <c r="O880" s="11">
-        <v>241</v>
+        <v>369</v>
       </c>
     </row>
     <row r="881" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42217,46 +42214,46 @@
         <v>1995</v>
       </c>
       <c r="B881" s="2">
-        <v>33003</v>
+        <v>36030</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E881" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F881" s="11">
-        <v>7289</v>
+        <v>8230</v>
       </c>
       <c r="G881" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H881" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I881" s="11">
         <v>40</v>
       </c>
       <c r="J881" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K881" s="11">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L881" s="11">
-        <v>250</v>
-      </c>
-      <c r="M881" s="11">
-        <v>49</v>
+        <v>340</v>
+      </c>
+      <c r="M881" s="12">
+        <v>55.7</v>
       </c>
       <c r="N881" s="11">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="O881" s="11">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="882" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42264,25 +42261,25 @@
         <v>1995</v>
       </c>
       <c r="B882" s="2">
-        <v>34020</v>
+        <v>44008</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D882" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E882" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F882" s="11">
-        <v>8713</v>
+        <v>7855</v>
       </c>
       <c r="G882" s="11">
         <v>10</v>
       </c>
       <c r="H882" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I882" s="11">
         <v>30</v>
@@ -42294,16 +42291,16 @@
         <v>80</v>
       </c>
       <c r="L882" s="11">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M882" s="12">
-        <v>36.4</v>
+        <v>41.5</v>
       </c>
       <c r="N882" s="11">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="O882" s="11">
-        <v>211</v>
+        <v>243</v>
       </c>
     </row>
     <row r="883" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42311,46 +42308,46 @@
         <v>1995</v>
       </c>
       <c r="B883" s="2">
-        <v>35003</v>
+        <v>44015</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D883" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E883" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F883" s="11">
-        <v>8481</v>
+        <v>8618</v>
       </c>
       <c r="G883" s="11">
+        <v>10</v>
+      </c>
+      <c r="H883" s="11">
+        <v>10</v>
+      </c>
+      <c r="I883" s="11">
         <v>20</v>
       </c>
-      <c r="H883" s="11">
+      <c r="J883" s="11">
         <v>30</v>
       </c>
-      <c r="I883" s="11">
-        <v>50</v>
-      </c>
-      <c r="J883" s="11">
-        <v>70</v>
-      </c>
       <c r="K883" s="11">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L883" s="11">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="M883" s="12">
-        <v>64.8</v>
+        <v>31.6</v>
       </c>
       <c r="N883" s="11">
-        <v>920</v>
+        <v>540</v>
       </c>
       <c r="O883" s="11">
-        <v>369</v>
+        <v>177</v>
       </c>
     </row>
     <row r="884" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42358,46 +42355,46 @@
         <v>1995</v>
       </c>
       <c r="B884" s="2">
-        <v>36030</v>
+        <v>45025</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E884" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F884" s="11">
-        <v>8230</v>
+        <v>8543</v>
       </c>
       <c r="G884" s="11">
+        <v>10</v>
+      </c>
+      <c r="H884" s="11">
         <v>20</v>
       </c>
-      <c r="H884" s="11">
+      <c r="I884" s="11">
         <v>30</v>
       </c>
-      <c r="I884" s="11">
+      <c r="J884" s="11">
         <v>40</v>
       </c>
-      <c r="J884" s="11">
-        <v>60</v>
-      </c>
       <c r="K884" s="11">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="L884" s="11">
+        <v>160</v>
+      </c>
+      <c r="M884" s="12">
+        <v>36.1</v>
+      </c>
+      <c r="N884" s="11">
         <v>340</v>
       </c>
-      <c r="M884" s="12">
-        <v>55.7</v>
-      </c>
-      <c r="N884" s="11">
-        <v>750</v>
-      </c>
       <c r="O884" s="11">
-        <v>333</v>
+        <v>153</v>
       </c>
     </row>
     <row r="885" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42405,46 +42402,46 @@
         <v>1995</v>
       </c>
       <c r="B885" s="2">
-        <v>44008</v>
+        <v>48002</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E885" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F885" s="11">
-        <v>7855</v>
+        <v>8088</v>
       </c>
       <c r="G885" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H885" s="11">
         <v>20</v>
       </c>
       <c r="I885" s="11">
+        <v>20</v>
+      </c>
+      <c r="J885" s="11">
         <v>30</v>
       </c>
-      <c r="J885" s="11">
-        <v>40</v>
-      </c>
       <c r="K885" s="11">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L885" s="11">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M885" s="12">
-        <v>41.5</v>
+        <v>26.6</v>
       </c>
       <c r="N885" s="11">
-        <v>780</v>
+        <v>200</v>
       </c>
       <c r="O885" s="11">
-        <v>243</v>
+        <v>90</v>
       </c>
     </row>
     <row r="886" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42452,46 +42449,46 @@
         <v>1995</v>
       </c>
       <c r="B886" s="2">
-        <v>44015</v>
+        <v>49010</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E886" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F886" s="11">
-        <v>8618</v>
+        <v>7297</v>
       </c>
       <c r="G886" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H886" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I886" s="11">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J886" s="11">
+        <v>3</v>
+      </c>
+      <c r="K886" s="11">
+        <v>6</v>
+      </c>
+      <c r="L886" s="11">
+        <v>16</v>
+      </c>
+      <c r="M886" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="N886" s="11">
         <v>30</v>
       </c>
-      <c r="K886" s="11">
-        <v>60</v>
-      </c>
-      <c r="L886" s="11">
-        <v>180</v>
-      </c>
-      <c r="M886" s="12">
-        <v>31.6</v>
-      </c>
-      <c r="N886" s="11">
-        <v>540</v>
-      </c>
       <c r="O886" s="11">
-        <v>177</v>
+        <v>16</v>
       </c>
     </row>
     <row r="887" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42499,46 +42496,46 @@
         <v>1995</v>
       </c>
       <c r="B887" s="2">
-        <v>45025</v>
+        <v>51001</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E887" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F887" s="11">
-        <v>8543</v>
+        <v>7887</v>
       </c>
       <c r="G887" s="11">
         <v>10</v>
       </c>
       <c r="H887" s="11">
+        <v>10</v>
+      </c>
+      <c r="I887" s="11">
         <v>20</v>
       </c>
-      <c r="I887" s="11">
-        <v>30</v>
-      </c>
       <c r="J887" s="11">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K887" s="11">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L887" s="11">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="M887" s="12">
-        <v>36.1</v>
+        <v>22.3</v>
       </c>
       <c r="N887" s="11">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="O887" s="11">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="888" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42546,46 +42543,46 @@
         <v>1995</v>
       </c>
       <c r="B888" s="2">
-        <v>48002</v>
+        <v>56051</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E888" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F888" s="11">
-        <v>8088</v>
+        <v>8571</v>
       </c>
       <c r="G888" s="11">
         <v>0</v>
       </c>
       <c r="H888" s="11">
+        <v>10</v>
+      </c>
+      <c r="I888" s="11">
+        <v>10</v>
+      </c>
+      <c r="J888" s="11">
         <v>20</v>
       </c>
-      <c r="I888" s="11">
-        <v>20</v>
-      </c>
-      <c r="J888" s="11">
+      <c r="K888" s="11">
         <v>30</v>
       </c>
-      <c r="K888" s="11">
-        <v>50</v>
-      </c>
       <c r="L888" s="11">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="M888" s="12">
-        <v>26.6</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="N888" s="11">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="O888" s="11">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="889" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42593,46 +42590,46 @@
         <v>1995</v>
       </c>
       <c r="B889" s="2">
-        <v>49010</v>
+        <v>63200</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="D889" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="E889" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F889" s="11">
-        <v>7297</v>
+        <v>8641</v>
       </c>
       <c r="G889" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H889" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I889" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J889" s="11">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K889" s="11">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="L889" s="11">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="M889" s="12">
-        <v>3.5</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="N889" s="11">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="O889" s="11">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="890" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42640,46 +42637,46 @@
         <v>1995</v>
       </c>
       <c r="B890" s="2">
-        <v>51001</v>
+        <v>71068</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E890" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F890" s="11">
-        <v>7887</v>
+        <v>7494</v>
       </c>
       <c r="G890" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H890" s="11">
         <v>10</v>
       </c>
       <c r="I890" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J890" s="11">
         <v>20</v>
       </c>
       <c r="K890" s="11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L890" s="11">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="M890" s="12">
-        <v>22.3</v>
+        <v>17.8</v>
       </c>
       <c r="N890" s="11">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O890" s="11">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="891" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -42687,22 +42684,22 @@
         <v>1995</v>
       </c>
       <c r="B891" s="2">
-        <v>56051</v>
+        <v>77203</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E891" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F891" s="11">
-        <v>8571</v>
+        <v>7311</v>
       </c>
       <c r="G891" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H891" s="11">
         <v>10</v>
@@ -42717,159 +42714,21 @@
         <v>30</v>
       </c>
       <c r="L891" s="11">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="M891" s="12">
-        <v>16.399999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="N891" s="11">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="O891" s="11">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="892" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A892" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B892" s="2">
-        <v>63200</v>
-      </c>
-      <c r="C892" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D892" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E892" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F892" s="11">
-        <v>8641</v>
-      </c>
-      <c r="G892" s="11">
-        <v>0</v>
-      </c>
-      <c r="H892" s="11">
-        <v>10</v>
-      </c>
-      <c r="I892" s="11">
-        <v>10</v>
-      </c>
-      <c r="J892" s="11">
-        <v>20</v>
-      </c>
-      <c r="K892" s="11">
-        <v>40</v>
-      </c>
-      <c r="L892" s="11">
-        <v>120</v>
-      </c>
-      <c r="M892" s="12">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="N892" s="11">
-        <v>300</v>
-      </c>
-      <c r="O892" s="11">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="893" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A893" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B893" s="2">
-        <v>71068</v>
-      </c>
-      <c r="C893" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D893" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E893" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F893" s="11">
-        <v>7494</v>
-      </c>
-      <c r="G893" s="11">
-        <v>0</v>
-      </c>
-      <c r="H893" s="11">
-        <v>10</v>
-      </c>
-      <c r="I893" s="11">
-        <v>10</v>
-      </c>
-      <c r="J893" s="11">
-        <v>20</v>
-      </c>
-      <c r="K893" s="11">
-        <v>40</v>
-      </c>
-      <c r="L893" s="11">
-        <v>130</v>
-      </c>
-      <c r="M893" s="12">
-        <v>17.8</v>
-      </c>
-      <c r="N893" s="11">
-        <v>400</v>
-      </c>
-      <c r="O893" s="11">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="894" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A894" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B894" s="2">
-        <v>77203</v>
-      </c>
-      <c r="C894" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D894" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E894" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F894" s="11">
-        <v>7311</v>
-      </c>
-      <c r="G894" s="11">
-        <v>10</v>
-      </c>
-      <c r="H894" s="11">
-        <v>10</v>
-      </c>
-      <c r="I894" s="11">
-        <v>10</v>
-      </c>
-      <c r="J894" s="11">
-        <v>20</v>
-      </c>
-      <c r="K894" s="11">
-        <v>30</v>
-      </c>
-      <c r="L894" s="11">
-        <v>79</v>
-      </c>
-      <c r="M894" s="12">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="N894" s="11">
-        <v>240</v>
-      </c>
-      <c r="O894" s="11">
         <v>70</v>
       </c>
     </row>
+    <row r="892" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="895" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
